--- a/DATA/IsoData/HEALIsoData.xlsx
+++ b/DATA/IsoData/HEALIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">f5a1a9eb-29c1-4338-a08a-fd710ce96428</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4d1bb1e-5e4a-4a2e-941b-0b3db301139e</t>
   </si>
   <si>
     <t xml:space="preserve">HEAL.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165013Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88a17424-d420-465f-951d-47166402293e</t>
+    <t xml:space="preserve">20210112T161240Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6781a3df-7390-437a-b7fe-dc3bea017d28</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HEAL.20190604.1227</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000099857</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165324Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17053354-e1e2-4f16-a4e6-c8fb1572e5a0</t>
+    <t xml:space="preserve">20210112T164304Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">505e41e1-815a-413b-b3e4-3ba9471ed683</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HEAL.20190618.1237</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">A00000100117</t>
   </si>
   <si>
-    <t xml:space="preserve">95e35aba-90a0-4267-af8f-b9a0cc472e8f</t>
+    <t xml:space="preserve">a00d836b-a482-4225-a868-099098a438d7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HEAL.20190731.1318</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000027471</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164809Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43f9e560-0d4f-42cf-b278-43197f7adab2</t>
+    <t xml:space="preserve">20210112T164042Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a779c657-2228-4fdb-8d71-b20cf27b1e3a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HEAL.20190814.1820</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">WDP.HEAL.20190814.1820.ISO.TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165039Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6439bb30-53fc-4455-8483-7acd3782b743</t>
+    <t xml:space="preserve">20210112T162329Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e3c5d823-eb98-4257-8cd0-d9b2b432e318</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HEAL.20190924.1404</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000101388</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165224Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b0259ce9-68e0-408f-819d-64d1d8451b44</t>
+    <t xml:space="preserve">20210112T163200Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f02d0a1-8b20-4268-b8a4-3c6219586e49</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.HEAL.20191205.1556</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000101396</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165633Z</t>
+    <t xml:space="preserve">20210112T160703Z</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -562,23 +568,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43550.8888888889</v>
@@ -599,35 +608,38 @@
         <v>0.146</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43601.9</v>
@@ -648,35 +660,38 @@
         <v>0.137</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43620.85</v>
@@ -697,35 +712,38 @@
         <v>0.23</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43634.8590277778</v>
@@ -746,32 +764,35 @@
         <v>0.209</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -793,35 +814,38 @@
         <v>0.036</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43692.1006944444</v>
@@ -842,35 +866,38 @@
         <v>0.255</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43774.9881944444</v>
@@ -891,17 +918,20 @@
         <v>0.267</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
